--- a/bh3/558054730092624768_2021-08-12_20-17-22.xlsx
+++ b/bh3/558054730092624768_2021-08-12_20-17-22.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5182997423</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:50:42</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44427.826875</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -616,10 +630,8 @@
           <t>5202896106</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:15:05</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44427.80214120371</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>5202836120</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:08:40</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44427.79768518519</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -771,10 +781,8 @@
           <t>5202823229</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:07:51</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44427.79711805555</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -849,10 +857,8 @@
           <t>5202794723</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:05:23</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44427.79540509259</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -927,10 +933,8 @@
           <t>5202799006</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:05:17</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44427.79533564814</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1005,10 +1009,8 @@
           <t>5202794025</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-19 19:05:11</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44427.79526620371</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1082,10 +1084,8 @@
           <t>5202700972</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:54:59</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44427.78818287037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1149,10 +1149,8 @@
           <t>5140491489</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:21:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44426.59796296297</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1220,10 +1218,8 @@
           <t>5140491489</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:40:08</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44426.56953703704</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1283,10 +1279,8 @@
           <t>5140491489</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:15:37</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44426.55251157407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1355,10 +1349,8 @@
           <t>5140550875</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:24:43</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44426.51716435186</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1426,10 +1418,8 @@
           <t>5140875638</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-18 09:57:39</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44426.41503472222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1501,10 +1491,8 @@
           <t>5141512786</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-18 09:38:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44426.40143518519</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1580,10 +1568,8 @@
           <t>5156500224</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-18 09:14:39</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44426.38517361111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1651,10 +1637,8 @@
           <t>5141305755</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:55:52</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44426.37212962963</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1722,10 +1706,8 @@
           <t>5141384207</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:49:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44426.36775462963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1793,10 +1775,8 @@
           <t>5141363900</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:49:18</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44426.36756944445</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1864,10 +1844,8 @@
           <t>5141290852</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:49:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44426.36739583333</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1935,10 +1913,8 @@
           <t>5140875638</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:48:47</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44426.36721064815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2006,10 +1982,8 @@
           <t>5140681961</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:48:36</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44426.36708333333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2077,10 +2051,8 @@
           <t>5140593972</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:48:25</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44426.36695601852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2148,10 +2120,8 @@
           <t>5140549277</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:48:17</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44426.36686342592</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2219,10 +2189,8 @@
           <t>5140550875</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:48:07</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44426.36674768518</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2290,10 +2258,8 @@
           <t>5140491489</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:47:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44426.36664351852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2361,10 +2327,8 @@
           <t>5140490807</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:47:48</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44426.36652777778</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2432,10 +2396,8 @@
           <t>5140419179</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:47:38</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44426.36641203704</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2503,10 +2465,8 @@
           <t>5141512786</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:47:28</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44426.3662962963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2574,10 +2534,8 @@
           <t>5141929233</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:47:19</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44426.36619212963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2645,10 +2603,8 @@
           <t>5142268053</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:47:04</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44426.36601851852</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2716,10 +2672,8 @@
           <t>5143528205</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:46:51</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44426.36586805555</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2787,10 +2741,8 @@
           <t>5143830758</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:46:38</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44426.36571759259</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2858,10 +2810,8 @@
           <t>5144719995</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:46:17</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44426.36547453704</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2929,10 +2879,8 @@
           <t>5147211330</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:45:53</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44426.36519675926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3000,10 +2948,8 @@
           <t>5147630884</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:45:37</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44426.36501157407</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3071,10 +3017,8 @@
           <t>5156500224</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:45:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44426.3646875</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3142,10 +3086,8 @@
           <t>5149734165</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:44:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44426.36414351852</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3213,10 +3155,8 @@
           <t>5141305755</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:44:14</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44426.36405092593</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3284,10 +3224,8 @@
           <t>5183006998</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:26:42</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44425.89354166666</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3355,10 +3293,8 @@
           <t>5183029848</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:25:27</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44425.68434027778</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3426,10 +3362,8 @@
           <t>5183008479</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:24:46</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44425.68386574074</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3497,10 +3431,8 @@
           <t>5183029848</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:24:41</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44425.68380787037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3564,10 +3496,8 @@
           <t>5183008479</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:19:02</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44425.67988425926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3635,10 +3565,8 @@
           <t>5183053029</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:16:58</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44425.67844907408</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3706,10 +3634,8 @@
           <t>5183060105</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:16:15</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44425.67795138889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3777,10 +3703,8 @@
           <t>5183029848</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:13:33</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44425.67607638889</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3848,10 +3772,8 @@
           <t>5183027620</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:12:36</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44425.67541666667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3919,10 +3841,8 @@
           <t>5183025932</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:11:52</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44425.67490740741</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3990,10 +3910,8 @@
           <t>5183008479</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:10:33</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44425.67399305556</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4061,10 +3979,8 @@
           <t>5183006998</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:09:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44425.67353009259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4132,10 +4048,8 @@
           <t>5183002955</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:09:22</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44425.67317129629</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4203,10 +4117,8 @@
           <t>5182999190</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:09:01</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44425.67292824074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4274,10 +4186,8 @@
           <t>5182997423</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:08:18</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44425.67243055555</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4345,10 +4255,8 @@
           <t>5174812649</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:07:17</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44425.67172453704</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4416,10 +4324,8 @@
           <t>5182979210</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:06:25</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44425.67112268518</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4487,10 +4393,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:04:42</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44425.66993055555</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4558,10 +4462,8 @@
           <t>5175057017</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:01:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44424.75137731482</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4637,10 +4539,8 @@
           <t>5174901339</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:44:07</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44424.7389699074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4716,10 +4616,8 @@
           <t>5174824311</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:36:24</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44424.73361111111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4795,10 +4693,8 @@
           <t>5174826340</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:35:49</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44424.73320601852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4874,10 +4770,8 @@
           <t>5174812649</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:34:37</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44424.73237268518</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4953,10 +4847,8 @@
           <t>5174806104</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:33:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44424.73153935185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5032,10 +4924,8 @@
           <t>5174802640</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:33:18</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44424.73145833334</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5111,10 +5001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:03:04</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44422.6687962963</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5182,10 +5070,8 @@
           <t>5156500224</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:02:30</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44422.66840277778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5253,10 +5139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:51:07</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44422.57716435185</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5324,10 +5208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:06:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44422.37969907407</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5399,10 +5281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:43:37</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44422.03028935185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5475,10 +5355,8 @@
           <t>5150552668</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:17:23</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44421.92873842592</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5547,10 +5425,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:26:14</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44421.89321759259</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5626,10 +5502,8 @@
           <t>5149734165</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:56:02</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44421.87224537037</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5693,10 +5567,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:55:46</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44421.87206018518</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5760,10 +5632,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:48:41</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44421.8671412037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5839,10 +5709,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:31:52</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44421.81379629629</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5910,10 +5778,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44421.81258101852</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5977,10 +5843,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:42</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44421.81159722222</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6048,10 +5912,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:15</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44421.80225694444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6115,10 +5977,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:49:40</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44421.78449074074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6186,10 +6046,8 @@
           <t>5148521262</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:49:03</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44421.7840625</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6257,10 +6115,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:37:28</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44421.77601851852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6336,10 +6192,8 @@
           <t>5148249963</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:22:48</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44421.76583333333</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6403,10 +6257,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:39</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44421.7553125</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6474,10 +6326,8 @@
           <t>5147630884</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:16:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44421.71959490741</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6546,10 +6396,8 @@
           <t>5147013515</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:29:06</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44421.686875</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6625,10 +6473,8 @@
           <t>5147211330</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:24:56</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44421.68398148148</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6704,10 +6550,8 @@
           <t>5147177366</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:20:24</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44421.68083333333</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6775,10 +6619,8 @@
           <t>5147169248</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:20:06</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44421.680625</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6846,10 +6688,8 @@
           <t>5142931373</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:05:37</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44421.67056712963</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6925,10 +6765,8 @@
           <t>5143754613</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:04:28</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44421.66976851852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6992,10 +6830,8 @@
           <t>5140830728</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:02:58</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44421.66872685185</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7071,10 +6907,8 @@
           <t>5143754613</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:01:05</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44421.66741898148</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7150,10 +6984,8 @@
           <t>5147013515</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:58:47</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44421.66582175926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7229,10 +7061,8 @@
           <t>5147012182</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:58:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44421.66540509259</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7296,10 +7126,8 @@
           <t>5142786061</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:57:39</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44421.66503472222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7375,10 +7203,8 @@
           <t>5146953873</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:50:10</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44421.65983796296</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7442,10 +7268,8 @@
           <t>5146897021</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:41:34</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44421.65386574074</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7521,10 +7345,8 @@
           <t>5146815103</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:29:36</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44421.64555555556</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7588,10 +7410,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:29:05</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44421.60353009259</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7659,10 +7479,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:26:45</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44421.60190972222</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7730,10 +7548,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:26:00</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44421.60138888889</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7801,10 +7617,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:25:40</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44421.60115740741</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7872,10 +7686,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:25:11</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44421.60082175926</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7935,10 +7747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:19:18</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44421.59673611111</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8002,10 +7812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-13 13:56:36</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44421.58097222223</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8077,10 +7885,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-13 13:11:21</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44421.54954861111</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8156,10 +7962,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:47:30</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44421.53298611111</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8227,10 +8031,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:17:00</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44421.51180555556</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8298,10 +8100,8 @@
           <t>5145331579</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:15:38</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44421.51085648148</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8365,10 +8165,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:12:44</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44421.50884259259</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8432,10 +8230,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:00:35</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44421.50040509259</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8503,10 +8299,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-13 11:36:49</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44421.48390046296</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8574,10 +8368,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-13 11:35:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44421.48288194444</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8645,10 +8437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-13 11:08:18</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44421.46409722222</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8708,10 +8498,8 @@
           <t>5144719995</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-13 11:00:17</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44421.45853009259</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8787,10 +8575,8 @@
           <t>5144648001</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:49:19</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44421.45091435185</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8866,10 +8652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:44:19</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44421.44744212963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8937,10 +8721,8 @@
           <t>5144615502</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:43:52</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44421.44712962963</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9012,10 +8794,8 @@
           <t>5144555389</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:35:31</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44421.44133101852</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9091,10 +8871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:16:23</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44421.42804398148</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9158,10 +8936,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:11:54</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44421.42493055556</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9229,10 +9005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:09:36</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44421.42333333333</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9304,10 +9078,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-13 09:10:10</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44421.38206018518</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9371,10 +9143,8 @@
           <t>5143862852</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:39:09</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44421.36052083333</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9442,10 +9212,8 @@
           <t>5143830758</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:31:18</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44421.35506944444</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9513,10 +9281,8 @@
           <t>5143782156</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:20:29</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44421.34755787037</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -9588,10 +9354,8 @@
           <t>5143754613</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:15:11</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44421.34387731482</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9655,10 +9419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:14:46</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44421.34358796296</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9724,10 +9486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:10:56</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44421.34092592593</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9791,10 +9551,8 @@
           <t>5140734089</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:06:29</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44421.33783564815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9867,10 +9625,8 @@
           <t>5140734089</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:42:35</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44421.32123842592</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9934,10 +9690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:03:44</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44421.29425925926</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10001,10 +9755,8 @@
           <t>5143528528</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:01:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44421.29282407407</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10072,10 +9824,8 @@
           <t>5143528205</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:01:08</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44421.2924537037</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10135,10 +9885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-13 06:48:30</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44421.28368055556</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10213,10 +9961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-13 06:47:30</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44421.28298611111</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10280,10 +10026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-13 06:30:08</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44421.27092592593</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10355,10 +10099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-13 06:08:18</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44421.25576388889</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10418,10 +10160,8 @@
           <t>5143251388</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-13 03:20:56</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44421.13953703704</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10497,10 +10237,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:50:43</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44421.11855324074</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10572,10 +10310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:45:37</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44421.11501157407</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10651,10 +10387,8 @@
           <t>5143157486</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:35:40</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44421.10810185185</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10722,10 +10456,8 @@
           <t>5143147707</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:34:43</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44421.10744212963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10793,10 +10525,8 @@
           <t>5143140207</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:27:30</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44421.10243055555</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10864,10 +10594,8 @@
           <t>5143008271</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:47:49</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44421.07487268518</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10931,10 +10659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:45:13</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44421.07306712963</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11002,10 +10728,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:39:58</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44421.0694212963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11077,10 +10801,8 @@
           <t>5142965581</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:37:49</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44421.06792824074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11148,10 +10870,8 @@
           <t>5142950316</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:33:56</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44421.06523148148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11219,10 +10939,8 @@
           <t>5142950257</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:33:54</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44421.06520833333</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11298,10 +11016,8 @@
           <t>5142947492</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:32:07</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44421.06396990741</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11369,10 +11085,8 @@
           <t>5142946408</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:31:22</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44421.06344907408</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11440,10 +11154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:30:51</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44421.06309027778</v>
       </c>
       <c r="I153" t="n">
         <v>5</v>
@@ -11519,10 +11231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:29:43</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44421.06230324074</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11591,10 +11301,8 @@
           <t>5142931373</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:27:50</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44421.06099537037</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11671,10 +11379,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:23:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44421.05831018519</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11746,10 +11452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:14:08</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44421.05148148148</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11813,10 +11517,8 @@
           <t>5142853601</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:13:00</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44421.05069444444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11889,10 +11591,8 @@
           <t>5142774417</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:12:40</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44421.05046296296</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11964,10 +11664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:03:51</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44421.04434027777</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12031,10 +11729,8 @@
           <t>5140718169</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:03:21</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44421.04399305556</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12106,10 +11802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:00:53</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44421.0422800926</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12174,10 +11868,8 @@
           <t>5142786061</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:58:01</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44421.04028935185</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12256,10 +11948,8 @@
           <t>5142774417</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:57:04</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44421.03962962963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12335,10 +12025,8 @@
           <t>5142770520</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:54:51</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44421.03809027778</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12417,10 +12105,8 @@
           <t>5142754985</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:53:53</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44421.03741898148</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12500,10 +12186,8 @@
           <t>5142758259</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:53:34</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44421.03719907408</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12584,10 +12268,8 @@
           <t>5140893315</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:53:03</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44421.03684027777</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12668,10 +12350,8 @@
           <t>5142746639</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:52:03</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44421.03614583334</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12750,10 +12430,8 @@
           <t>5142744056</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:51:15</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44421.03559027778</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12830,10 +12508,8 @@
           <t>5142741570</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:49:52</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44421.03462962963</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12915,10 +12591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:48:14</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44421.03349537037</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -13001,10 +12675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:45:23</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44421.0315162037</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13080,10 +12752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:40:32</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44421.02814814815</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13147,10 +12817,8 @@
           <t>5141577321</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:37:37</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44421.02612268519</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13218,10 +12886,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:34:29</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44421.02394675926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13293,10 +12959,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:34:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44421.02381944445</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13368,10 +13032,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:33:35</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44421.02332175926</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13443,10 +13105,8 @@
           <t>5140613791</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:27:27</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44421.0190625</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13515,10 +13175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:26:12</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44421.01819444444</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13594,10 +13252,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:24:55</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44421.01730324074</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13681,10 +13337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:23:04</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44421.01601851852</v>
       </c>
       <c r="I182" t="n">
         <v>4</v>
@@ -13748,10 +13402,8 @@
           <t>5142569023</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:22:55</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44421.01591435185</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13819,10 +13471,8 @@
           <t>5142469987</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:09:47</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44421.00679398148</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -13890,10 +13540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:05:09</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44421.00357638889</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -13953,10 +13601,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:03:44</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44421.00259259259</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14020,10 +13666,8 @@
           <t>5140395256</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:03:31</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44421.00244212963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14091,10 +13735,8 @@
           <t>5140613791</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:03:04</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44421.00212962963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14162,10 +13804,8 @@
           <t>5142413680</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:02:45</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44421.00190972222</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14229,10 +13869,8 @@
           <t>5140613791</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:59:45</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44420.99982638889</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14308,10 +13946,8 @@
           <t>5142379542</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:57:32</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44420.99828703704</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14387,10 +14023,8 @@
           <t>5141267808</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:55:39</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44420.99697916667</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14454,10 +14088,8 @@
           <t>5140613791</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:53:38</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44420.9955787037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14529,10 +14161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:52:45</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44420.99496527778</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14596,10 +14226,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:52:41</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44420.99491898148</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14667,10 +14295,8 @@
           <t>5142302321</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:47:55</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44420.9916087963</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14734,10 +14360,8 @@
           <t>5142268053</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:44:16</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44420.98907407407</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14813,10 +14437,8 @@
           <t>5141267808</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:38:12</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44420.98486111111</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14884,10 +14506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:37:44</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44420.98453703704</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14955,10 +14575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:37:04</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44420.98407407408</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15030,10 +14648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:34:24</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44420.98222222222</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15097,10 +14713,8 @@
           <t>5141881427</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:25:27</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44420.97600694445</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15168,10 +14782,8 @@
           <t>5142087729</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:23:12</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44420.97444444444</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15243,10 +14855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:22:54</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44420.97423611111</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15318,10 +14928,8 @@
           <t>5142074433</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:21:59</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44420.97359953704</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15393,10 +15001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:18:18</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44420.97104166666</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15464,10 +15070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:14:54</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44420.96868055555</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15531,10 +15135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:14:17</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44420.96825231481</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15599,10 +15201,8 @@
           <t>5140661386</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:13:03</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44420.96739583334</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15678,10 +15278,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:12:49</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44420.9672337963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15757,10 +15355,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:10:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44420.96546296297</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15836,10 +15432,8 @@
           <t>5141929233</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:06:34</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44420.96289351852</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15911,10 +15505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:05:22</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44420.96206018519</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15990,10 +15582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:04:57</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44420.96177083333</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16069,10 +15659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:03:35</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44420.96082175926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16144,10 +15732,8 @@
           <t>5141898196</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:03:22</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44420.9606712963</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16211,10 +15797,8 @@
           <t>5141881427</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:00:58</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44420.95900462963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16278,10 +15862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:00:05</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44420.95839120371</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16349,10 +15931,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:58:13</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44420.9570949074</v>
       </c>
       <c r="I219" t="n">
         <v>4</v>
@@ -16412,10 +15992,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:57:51</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44420.95684027778</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16479,10 +16057,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:57:22</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44420.95650462963</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16546,10 +16122,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:55:06</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44420.95493055556</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16617,10 +16191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:54:30</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44420.95451388889</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16689,10 +16261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:54:05</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44420.95422453704</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16756,10 +16326,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:52:59</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44420.95346064815</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16823,10 +16391,8 @@
           <t>5141792877</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:52:00</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44420.95277777778</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16894,10 +16460,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:51:35</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44420.95248842592</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16965,10 +16529,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:51:10</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44420.95219907408</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17040,10 +16602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:49:24</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44420.95097222222</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17110,10 +16670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:49:20</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44420.95092592593</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17181,10 +16739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:49:04</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44420.95074074074</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17248,10 +16804,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:49:03</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44420.95072916667</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17319,10 +16873,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:47:14</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44420.9494675926</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17391,10 +16943,8 @@
           <t>5141738942</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:46:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44420.94876157407</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17458,10 +17008,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:45:54</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44420.94854166666</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17529,10 +17077,8 @@
           <t>5141577321</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:43:33</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44420.94690972222</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17592,10 +17138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:42:44</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44420.94634259259</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17663,10 +17207,8 @@
           <t>5141673060</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:39:54</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44420.944375</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17734,10 +17276,8 @@
           <t>5141672873</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:39:50</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44420.94432870371</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17801,10 +17341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:39:30</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44420.94409722222</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17880,10 +17418,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:35:30</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44420.94131944444</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17947,10 +17483,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:33:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44420.93996527778</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18018,10 +17552,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:32:20</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44420.93912037037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18085,10 +17617,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:31:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44420.93857638889</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18156,10 +17686,8 @@
           <t>5141596280</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:31:21</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44420.9384375</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18235,10 +17763,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:30:48</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44420.93805555555</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18306,10 +17832,8 @@
           <t>5141577321</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:30:00</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44420.9375</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18377,10 +17901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:28:17</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44420.93630787037</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18448,10 +17970,8 @@
           <t>5141495489</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:27:22</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44420.9356712963</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18519,10 +18039,8 @@
           <t>5141286348</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:27:17</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44420.93561342593</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18595,10 +18113,8 @@
           <t>5140839038</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:27:10</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44420.93553240741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18668,10 +18184,8 @@
           <t>5141495489</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:27:07</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44420.93549768518</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18743,10 +18257,8 @@
           <t>5141544770</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:27:01</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44420.93542824074</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18818,10 +18330,8 @@
           <t>5141183631</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:25:40</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44420.93449074074</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18881,10 +18391,8 @@
           <t>5141091875</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:24:58</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44420.93400462963</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18956,10 +18464,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:24:51</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44420.93392361111</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19027,10 +18533,8 @@
           <t>5141512786</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:23:11</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44420.9327662037</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19106,10 +18610,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:22:58</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44420.93261574074</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19173,10 +18675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:22:01</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44420.93195601852</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19240,10 +18740,8 @@
           <t>5141495489</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:21:09</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44420.93135416666</v>
       </c>
       <c r="I260" t="n">
         <v>7</v>
@@ -19319,10 +18817,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:19:35</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44420.9302662037</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19390,10 +18886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:18:18</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44420.929375</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19469,10 +18963,8 @@
           <t>5141462137</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:17:58</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44420.92914351852</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19548,10 +19040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:16:18</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44420.92798611111</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19627,10 +19117,8 @@
           <t>5141440403</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:15:30</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44420.92743055556</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19706,10 +19194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:15:09</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44420.9271875</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19785,10 +19271,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:15:06</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44420.92715277777</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19852,10 +19336,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:13:38</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44420.92613425926</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19923,10 +19405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:13:09</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44420.92579861111</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19990,10 +19470,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:12:55</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44420.92563657407</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20065,10 +19543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:12:26</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44420.92530092593</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20136,10 +19612,8 @@
           <t>5141384207</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:10:38</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44420.92405092593</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20207,10 +19681,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:09:43</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44420.92341435186</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20274,10 +19746,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:09:10</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44420.92303240741</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20341,10 +19811,8 @@
           <t>5141363900</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:08:14</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44420.92238425926</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20420,10 +19888,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:07:39</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44420.92197916667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20487,10 +19953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:06:13</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44420.9209837963</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20566,10 +20030,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:05:52</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44420.92074074074</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20633,10 +20095,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:04:02</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44420.91946759259</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20704,10 +20164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:03:08</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44420.91884259259</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20775,10 +20233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:03:04</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44420.9187962963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20850,10 +20306,8 @@
           <t>5141305755</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:01:53</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44420.91797453703</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20926,10 +20380,8 @@
           <t>5141290852</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:00:10</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44420.91678240741</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21005,10 +20457,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:00:10</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44420.91678240741</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21072,10 +20522,8 @@
           <t>5141286348</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:00:03</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44420.91670138889</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21139,10 +20587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:58:34</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44420.91567129629</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21218,10 +20664,8 @@
           <t>5140423358</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:58:25</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44420.91556712963</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21293,10 +20737,8 @@
           <t>5141267808</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:58:01</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44420.91528935185</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21360,10 +20802,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:56:53</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44420.91450231482</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21427,10 +20867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:56:47</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44420.91443287037</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21506,10 +20944,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:56:27</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44420.91420138889</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21573,10 +21009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:55:12</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44420.91333333333</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21644,10 +21078,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:54:37</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44420.91292824074</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21711,10 +21143,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:53:25</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44420.91209490741</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21790,10 +21220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:53:01</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44420.91181712963</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21861,10 +21289,8 @@
           <t>5140497592</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:52:52</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44420.91171296296</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21936,10 +21362,8 @@
           <t>5141213820</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:52:27</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44420.91142361111</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22015,10 +21439,8 @@
           <t>5141204099</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:52:11</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44420.91123842593</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22086,10 +21508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:52:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44420.91122685185</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22153,10 +21573,8 @@
           <t>5141183631</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:50:14</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44420.90988425926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22224,10 +21642,8 @@
           <t>5141183631</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:49:10</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44420.90914351852</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22287,10 +21703,8 @@
           <t>5141174006</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:49:02</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44420.90905092593</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22350,10 +21764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:46:56</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44420.90759259259</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22421,10 +21833,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:45:06</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44420.90631944445</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22492,10 +21902,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:44:48</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44420.90611111111</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22559,10 +21967,8 @@
           <t>5140677111</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:43:26</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44420.90516203704</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22626,10 +22032,8 @@
           <t>5141049436</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:43:07</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44420.90494212963</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22697,10 +22101,8 @@
           <t>5140839038</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:40:46</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44420.90331018518</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22772,10 +22174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:39:49</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44420.90265046297</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22843,10 +22243,8 @@
           <t>5141091875</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:39:28</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44420.9024074074</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22910,10 +22308,8 @@
           <t>5141049436</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:38:11</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44420.9015162037</v>
       </c>
       <c r="I311" t="n">
         <v>8</v>
@@ -22977,10 +22373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:37:17</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44420.9008912037</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -23056,10 +22450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:37:07</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44420.90077546296</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23123,10 +22515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:36:52</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44420.90060185185</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23202,10 +22592,8 @@
           <t>5140385952</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:36:17</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44420.90019675926</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23277,10 +22665,8 @@
           <t>5140826583</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:36:05</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44420.90005787037</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23352,10 +22738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:35:44</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44420.89981481482</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23431,10 +22815,8 @@
           <t>5141049436</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:35:23</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44420.89957175926</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23502,10 +22884,8 @@
           <t>5140769959</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:34:13</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44420.89876157408</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23577,10 +22957,8 @@
           <t>5140706106</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:33:51</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44420.89850694445</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23652,10 +23030,8 @@
           <t>5140890254</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:32:57</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44420.89788194445</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23727,10 +23103,8 @@
           <t>5141021369</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:31:46</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44420.89706018518</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23790,10 +23164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:30:42</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44420.89631944444</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -23869,10 +23241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:30:09</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44420.8959375</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23940,10 +23310,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:29:19</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44420.8953587963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24011,10 +23379,8 @@
           <t>5140987685</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:28:12</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44420.89458333333</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24074,10 +23440,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:27:19</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44420.89396990741</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24145,10 +23509,8 @@
           <t>5140979031</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:26:59</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44420.89373842593</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24221,10 +23583,8 @@
           <t>5140872380</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:26:42</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44420.89354166666</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24292,10 +23652,8 @@
           <t>5140839038</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:26:34</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44420.89344907407</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24371,10 +23729,8 @@
           <t>5140964356</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:25:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44420.89267361111</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24438,10 +23794,8 @@
           <t>5140875638</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:23:49</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44420.89153935185</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24509,10 +23863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:23:33</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44420.89135416667</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24588,10 +23940,8 @@
           <t>5140385952</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:23:28</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44420.89129629629</v>
       </c>
       <c r="I334" t="n">
         <v>8</v>
@@ -24667,10 +24017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:23:16</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44420.89115740741</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24746,10 +24094,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:22:40</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44420.89074074074</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24825,10 +24171,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:21:53</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44420.89019675926</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24892,10 +24236,8 @@
           <t>5140928496</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:21:50</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44420.89016203704</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24971,10 +24313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:21:07</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44420.88966435185</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25050,10 +24390,8 @@
           <t>5140780422</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:20:27</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44420.88920138889</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25129,10 +24467,8 @@
           <t>5140408516</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:19:15</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44420.88836805556</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25197,10 +24533,8 @@
           <t>5140893315</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:17:17</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44420.88700231481</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25277,10 +24611,8 @@
           <t>5140892485</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:16:58</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44420.8867824074</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25356,10 +24688,8 @@
           <t>5140886534</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:16:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44420.88637731481</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25427,10 +24757,8 @@
           <t>5140661386</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:16:18</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44420.88631944444</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25502,10 +24830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:16:09</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44420.88621527778</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25569,10 +24895,8 @@
           <t>5140890254</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:16:08</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44420.8862037037</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25644,10 +24968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:15:56</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44420.88606481482</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25723,10 +25045,8 @@
           <t>5140879862</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:15:51</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44420.88600694444</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25802,10 +25122,8 @@
           <t>5140839038</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:15:14</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44420.8855787037</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25877,10 +25195,8 @@
           <t>5140872380</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:15:01</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44420.88542824074</v>
       </c>
       <c r="I351" t="n">
         <v>6</v>
@@ -25952,10 +25268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:14:51</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44420.8853125</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26031,10 +25345,8 @@
           <t>5140875638</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:14:30</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44420.88506944444</v>
       </c>
       <c r="I353" t="n">
         <v>6</v>
@@ -26106,10 +25418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:14:09</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44420.88482638889</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26186,10 +25496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:14:05</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44420.88478009259</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26253,10 +25561,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:14:04</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44420.88476851852</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26324,10 +25630,8 @@
           <t>5140806432</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:13:53</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44420.8846412037</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26391,10 +25695,8 @@
           <t>5140853761</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:13:38</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44420.88446759259</v>
       </c>
       <c r="I358" t="n">
         <v>3</v>
@@ -26466,10 +25768,8 @@
           <t>5140862850</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:13:37</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44420.88445601852</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26545,10 +25845,8 @@
           <t>5140839038</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:11:51</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44420.88322916667</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -26624,10 +25922,8 @@
           <t>5140780422</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:11:28</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44420.88296296296</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26700,10 +25996,8 @@
           <t>5140830728</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:09:47</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44420.88179398148</v>
       </c>
       <c r="I362" t="n">
         <v>2</v>
@@ -26767,10 +26061,8 @@
           <t>5140826583</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:09:31</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44420.8816087963</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26834,10 +26126,8 @@
           <t>5140825517</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:09:09</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44420.88135416667</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26913,10 +26203,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:07:33</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44420.88024305556</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26988,10 +26276,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:07:24</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44420.88013888889</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27067,10 +26353,8 @@
           <t>5140806432</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:07:06</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44420.87993055556</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27143,10 +26427,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:46</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44420.87969907407</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27222,10 +26504,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:42</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44420.87965277778</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27297,10 +26577,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:11</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44420.87929398148</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27372,10 +26650,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:04</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44420.87921296297</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27451,10 +26727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:00</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44420.87916666667</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27522,10 +26796,8 @@
           <t>5140793308</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:05:53</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44420.87908564815</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27585,10 +26857,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:05:11</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44420.87859953703</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27660,10 +26930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:55</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44420.87841435185</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27731,10 +26999,8 @@
           <t>5140774958</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:42</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44420.87826388889</v>
       </c>
       <c r="I376" t="n">
         <v>4</v>
@@ -27806,10 +27072,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:28</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44420.87810185185</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27881,10 +27145,8 @@
           <t>5140780422</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:13</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44420.87792824074</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27960,10 +27222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:13</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44420.87792824074</v>
       </c>
       <c r="I379" t="n">
         <v>7</v>
@@ -28039,10 +27299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:10</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44420.87789351852</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28106,10 +27364,8 @@
           <t>5140769959</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:03</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44420.8778125</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28177,10 +27433,8 @@
           <t>5140777539</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:04:02</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44420.87780092593</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28252,10 +27506,8 @@
           <t>5140703427</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:03:30</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44420.87743055556</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28323,10 +27575,8 @@
           <t>5140771756</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:03:28</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44420.87740740741</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28398,10 +27648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:03:26</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44420.87738425926</v>
       </c>
       <c r="I385" t="n">
         <v>5</v>
@@ -28469,10 +27717,8 @@
           <t>5140768009</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:03:25</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44420.87737268519</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28544,10 +27790,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:02:40</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44420.87685185186</v>
       </c>
       <c r="I387" t="n">
         <v>13</v>
@@ -28619,10 +27863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:01:37</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44420.87612268519</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28698,10 +27940,8 @@
           <t>5140661386</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:00:26</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44420.87530092592</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28769,10 +28009,8 @@
           <t>5140745802</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:00:22</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44420.87525462963</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28840,10 +28078,8 @@
           <t>5140738286</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:00:19</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44420.87521990741</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28919,10 +28155,8 @@
           <t>5140734089</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:59:49</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44420.87487268518</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28995,10 +28229,8 @@
           <t>5140736159</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:59:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44420.87466435185</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29062,10 +28294,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:58:31</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44420.87396990741</v>
       </c>
       <c r="I394" t="n">
         <v>13</v>
@@ -29141,10 +28371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:58:26</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44420.87391203704</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29220,10 +28448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:58:08</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44420.87370370371</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29287,10 +28513,8 @@
           <t>5140718221</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:57:59</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44420.87359953704</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29362,10 +28586,8 @@
           <t>5140718169</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:57:58</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44420.87358796296</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29433,10 +28655,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:57:47</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44420.87346064814</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29512,10 +28732,8 @@
           <t>5140703427</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:56:35</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44420.87262731481</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29583,10 +28801,8 @@
           <t>5140677111</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:56:28</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44420.8725462963</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -29654,10 +28870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:56:11</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44420.87234953704</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29725,10 +28939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:55:47</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44420.87207175926</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -29796,10 +29008,8 @@
           <t>5140706106</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:55:44</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44420.87203703704</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29867,10 +29077,8 @@
           <t>5140689795</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:55:14</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44420.87168981481</v>
       </c>
       <c r="I405" t="n">
         <v>10</v>
@@ -29934,10 +29142,8 @@
           <t>5140688078</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:54:34</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44420.87122685185</v>
       </c>
       <c r="I406" t="n">
         <v>5</v>
@@ -30013,10 +29219,8 @@
           <t>5140696071</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:54:26</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44420.87113425926</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30092,10 +29296,8 @@
           <t>5140695819</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:54:21</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44420.87107638889</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30171,10 +29373,8 @@
           <t>5140684940</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:54:03</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44420.87086805556</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30251,10 +29451,8 @@
           <t>5140685340</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:53:33</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44420.87052083333</v>
       </c>
       <c r="I410" t="n">
         <v>4</v>
@@ -30330,10 +29528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:53:32</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44420.87050925926</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30397,10 +29593,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:53:21</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44420.87038194444</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30464,10 +29658,8 @@
           <t>5140681945</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:53:04</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44420.87018518519</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30535,10 +29727,8 @@
           <t>5140681961</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:53:04</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44420.87018518519</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30608,10 +29798,8 @@
           <t>5140677111</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:52:50</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44420.87002314815</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30675,10 +29863,8 @@
           <t>5140673395</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:52:47</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44420.86998842593</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30755,10 +29941,8 @@
           <t>5140661386</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:52:07</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44420.86952546296</v>
       </c>
       <c r="I417" t="n">
         <v>19</v>
@@ -30830,10 +30014,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:52:01</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44420.86945601852</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30905,10 +30087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:51:44</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44420.86925925926</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30984,10 +30164,8 @@
           <t>5140670415</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:51:39</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44420.86920138889</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31059,10 +30237,8 @@
           <t>5140662961</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:51:31</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44420.86910879629</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31126,10 +30302,8 @@
           <t>5140666914</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:51:25</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44420.86903935186</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31205,10 +30379,8 @@
           <t>5140661386</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:51:00</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44420.86875</v>
       </c>
       <c r="I423" t="n">
         <v>22</v>
@@ -31276,10 +30448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:50:20</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44420.86828703704</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31347,10 +30517,8 @@
           <t>5140408516</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:50:10</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44420.86817129629</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31414,10 +30582,8 @@
           <t>5140647906</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:49:53</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44420.86797453704</v>
       </c>
       <c r="I426" t="n">
         <v>3</v>
@@ -31477,10 +30643,8 @@
           <t>5140647028</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:49:36</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44420.86777777778</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31556,10 +30720,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:49:29</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44420.86769675926</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31623,10 +30785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:49:24</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44420.86763888889</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31698,10 +30858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:48:23</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44420.86693287037</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31765,10 +30923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:48:10</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44420.86678240741</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31840,10 +30996,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:48:04</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44420.86671296296</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31915,10 +31069,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:47:45</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44420.86649305555</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31990,10 +31142,8 @@
           <t>5140497592</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:47:42</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44420.86645833333</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -32057,10 +31207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:46:47</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44420.86582175926</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32128,10 +31276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:46:40</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44420.86574074074</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32203,10 +31349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:46:39</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44420.86572916667</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32270,10 +31414,8 @@
           <t>5140613791</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:46:29</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44420.86561342593</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32337,10 +31479,8 @@
           <t>5140395256</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:45:43</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44420.86508101852</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32404,10 +31544,8 @@
           <t>5140613791</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:45:33</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44420.86496527777</v>
       </c>
       <c r="I440" t="n">
         <v>11</v>
@@ -32471,10 +31609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:45:19</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44420.86480324074</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32546,10 +31682,8 @@
           <t>5140607434</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:44:56</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44420.86453703704</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -32621,10 +31755,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:44:52</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44420.86449074074</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32688,10 +31820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:44:18</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44420.86409722222</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32767,10 +31897,8 @@
           <t>5140605107</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:44:09</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44420.86399305556</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32846,10 +31974,8 @@
           <t>5140593972</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:43:47</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44420.86373842593</v>
       </c>
       <c r="I446" t="n">
         <v>2</v>
@@ -32909,10 +32035,8 @@
           <t>5140422106</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:43:28</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44420.86351851852</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32984,10 +32108,8 @@
           <t>5140592288</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:43:14</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44420.86335648148</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33063,10 +32185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:55</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44420.86313657407</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33134,10 +32254,8 @@
           <t>5140591029</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:49</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44420.86306712963</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33209,10 +32327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:39</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44420.86295138889</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33288,10 +32404,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:22</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44420.86275462963</v>
       </c>
       <c r="I452" t="n">
         <v>8</v>
@@ -33367,10 +32481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:15</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44420.86267361111</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -33438,10 +32550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:11</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44420.86262731482</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33517,10 +32627,8 @@
           <t>5140578995</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:08</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44420.8625925926</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33592,10 +32700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:05</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44420.86255787037</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33667,10 +32773,8 @@
           <t>5140573513</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:41:25</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44420.86209490741</v>
       </c>
       <c r="I457" t="n">
         <v>3</v>
@@ -33734,10 +32838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:41:15</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44420.86197916666</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33809,10 +32911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:40:46</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44420.86164351852</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33888,10 +32988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:40:42</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44420.86159722223</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33955,10 +33053,8 @@
           <t>5140542620</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:40:09</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44420.86121527778</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34028,10 +33124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:40:08</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44420.8612037037</v>
       </c>
       <c r="I462" t="n">
         <v>452</v>
@@ -34103,10 +33197,8 @@
           <t>5140559401</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:39:51</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44420.86100694445</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34182,10 +33274,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:39:36</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44420.86083333333</v>
       </c>
       <c r="I464" t="n">
         <v>6</v>
@@ -34261,10 +33351,8 @@
           <t>5140549277</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:38:52</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44420.86032407408</v>
       </c>
       <c r="I465" t="n">
         <v>2</v>
@@ -34336,10 +33424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:38:50</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44420.86030092592</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34411,10 +33497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:38:35</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44420.86012731482</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34482,10 +33566,8 @@
           <t>5140551131</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:38:18</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44420.85993055555</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34561,10 +33643,8 @@
           <t>5140550875</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:38:13</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44420.85987268519</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34632,10 +33712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:28</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44420.85935185185</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34703,10 +33781,8 @@
           <t>5140422106</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:24</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44420.85930555555</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34782,10 +33858,8 @@
           <t>5140543328</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:23</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44420.85929398148</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34857,10 +33931,8 @@
           <t>5140422106</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:17</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44420.85922453704</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -34928,10 +34000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:16</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44420.85921296296</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35007,10 +34077,8 @@
           <t>5140542871</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:15</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44420.85920138889</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35078,10 +34146,8 @@
           <t>5140542697</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:11</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44420.85915509259</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35153,10 +34219,8 @@
           <t>5140542620</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:10</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44420.85914351852</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35224,10 +34288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:36:51</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44420.85892361111</v>
       </c>
       <c r="I478" t="n">
         <v>16</v>
@@ -35303,10 +34365,8 @@
           <t>5140518523</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:35:11</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44420.85776620371</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35378,10 +34438,8 @@
           <t>5140497592</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:35:10</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44420.85775462963</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35457,10 +34515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:35:07</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44420.85771990741</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35536,10 +34592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:35:03</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44420.85767361111</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35611,10 +34665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:34:48</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44420.8575</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35682,10 +34734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:34:45</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44420.85746527778</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35753,10 +34803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:34:37</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44420.85737268518</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35828,10 +34876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:34:29</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44420.85728009259</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35899,10 +34945,8 @@
           <t>5140515463</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:34:09</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44420.85704861111</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35974,10 +35018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:34:08</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44420.85703703704</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36053,10 +35095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:57</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44420.85690972222</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36132,10 +35172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:56</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44420.85689814815</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36210,10 +35248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:43</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44420.85674768518</v>
       </c>
       <c r="I491" t="n">
         <v>5</v>
@@ -36281,10 +35317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:33</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44420.85663194444</v>
       </c>
       <c r="I492" t="n">
         <v>44</v>
@@ -36358,10 +35392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:31</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44420.8566087963</v>
       </c>
       <c r="I493" t="n">
         <v>6</v>
@@ -36429,10 +35461,8 @@
           <t>5140508020</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:19</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44420.8564699074</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36500,10 +35530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:11</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44420.85637731481</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36567,10 +35595,8 @@
           <t>5140502081</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:33:03</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44420.85628472222</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36634,10 +35660,8 @@
           <t>5140501773</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:32:56</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44420.8562037037</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36701,10 +35725,8 @@
           <t>5140500734</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:32:32</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44420.85592592593</v>
       </c>
       <c r="I498" t="n">
         <v>7</v>
@@ -36764,10 +35786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:32:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44420.8558912037</v>
       </c>
       <c r="I499" t="n">
         <v>6</v>
@@ -36843,10 +35863,8 @@
           <t>5140497592</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:32:16</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44420.85574074074</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36910,10 +35928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:32:07</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44420.85563657407</v>
       </c>
       <c r="I501" t="n">
         <v>10</v>
@@ -36981,10 +35997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:31:33</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44420.85524305556</v>
       </c>
       <c r="I502" t="n">
         <v>274</v>
@@ -37052,10 +36066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:31:22</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44420.85511574074</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37123,10 +36135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:31:07</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44420.85494212963</v>
       </c>
       <c r="I504" t="n">
         <v>5</v>
@@ -37194,10 +36204,8 @@
           <t>5140491489</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:31:07</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44420.85494212963</v>
       </c>
       <c r="I505" t="n">
         <v>3</v>
@@ -37266,10 +36274,8 @@
           <t>5140490807</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:53</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44420.8547800926</v>
       </c>
       <c r="I506" t="n">
         <v>13</v>
@@ -37333,10 +36339,8 @@
           <t>5140485805</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:38</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44420.85460648148</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37404,10 +36408,8 @@
           <t>5140482497</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:37</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44420.85459490741</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37483,10 +36485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:35</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44420.85457175926</v>
       </c>
       <c r="I509" t="n">
         <v>3</v>
@@ -37550,10 +36550,8 @@
           <t>5140422106</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:30</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44420.85451388889</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37625,10 +36623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:11</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44420.85429398148</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37696,10 +36692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:30:03</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44420.85420138889</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37767,10 +36761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:29:38</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44420.85391203704</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37850,10 +36842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:29:38</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44420.85391203704</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37929,10 +36919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:29:09</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44420.85357638889</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38004,10 +36992,8 @@
           <t>5140467136</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:55</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44420.85341435186</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38079,10 +37065,8 @@
           <t>5140395256</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:50</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44420.85335648148</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38146,10 +37130,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:50</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44420.85335648148</v>
       </c>
       <c r="I518" t="n">
         <v>40</v>
@@ -38217,10 +37199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:45</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44420.85329861111</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38292,10 +37272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:33</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44420.85315972222</v>
       </c>
       <c r="I520" t="n">
         <v>4</v>
@@ -38371,10 +37349,8 @@
           <t>5140462492</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:07</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44420.85285879629</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38438,10 +37414,8 @@
           <t>5140459359</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:28:02</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44420.85280092592</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38513,10 +37487,8 @@
           <t>5140453173</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:27:42</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44420.85256944445</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38576,10 +37548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:27:14</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44420.85224537037</v>
       </c>
       <c r="I524" t="n">
         <v>91</v>
@@ -38646,10 +37616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:27:11</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44420.85221064815</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38713,10 +37681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:26:46</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44420.85192129629</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -38784,10 +37750,8 @@
           <t>5140444541</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:26:27</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44420.85170138889</v>
       </c>
       <c r="I527" t="n">
         <v>3</v>
@@ -38851,10 +37815,8 @@
           <t>5140444440</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:26:25</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44420.85167824074</v>
       </c>
       <c r="I528" t="n">
         <v>14</v>
@@ -38930,10 +37892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:26:17</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44420.85158564815</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39009,10 +37969,8 @@
           <t>5140446242</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:26:01</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44420.85140046296</v>
       </c>
       <c r="I530" t="n">
         <v>2</v>
@@ -39076,10 +38034,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:25:48</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44420.85125</v>
       </c>
       <c r="I531" t="n">
         <v>26</v>
@@ -39155,10 +38111,8 @@
           <t>5140408516</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:25:47</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44420.85123842592</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39226,10 +38180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:25:40</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44420.85115740741</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39293,10 +38245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:25:26</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44420.85099537037</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39372,10 +38322,8 @@
           <t>5140408516</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:25:08</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44420.85078703704</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39451,10 +38399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:24:45</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44420.85052083333</v>
       </c>
       <c r="I536" t="n">
         <v>33</v>
@@ -39518,10 +38464,8 @@
           <t>5140435462</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:24:40</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44420.85046296296</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39593,10 +38537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:24:20</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44420.85023148148</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39672,10 +38614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:24:07</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44420.85008101852</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -39744,10 +38684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:24:02</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44420.85002314814</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39823,10 +38761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:59</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44420.84998842593</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39902,10 +38838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:53</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44420.84991898148</v>
       </c>
       <c r="I542" t="n">
         <v>294</v>
@@ -39969,10 +38903,8 @@
           <t>5140423358</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:52</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44420.84990740741</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40040,10 +38972,8 @@
           <t>5140411480</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:50</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44420.84988425926</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40111,10 +39041,8 @@
           <t>5140419179</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:38</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44420.84974537037</v>
       </c>
       <c r="I545" t="n">
         <v>24</v>
@@ -40178,10 +39106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:31</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44420.84966435185</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40245,10 +39171,8 @@
           <t>5140395256</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:30</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44420.84965277778</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40308,10 +39232,8 @@
           <t>5140418768</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:30</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44420.84965277778</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40383,10 +39305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:27</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44420.84961805555</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40450,10 +39370,8 @@
           <t>5140422106</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:23</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44420.84957175926</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40529,10 +39447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:23:22</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44420.84956018518</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40608,10 +39524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:43</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44420.8491087963</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40687,10 +39601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:29</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44420.84894675926</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40758,10 +39670,8 @@
           <t>5140415627</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:29</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44420.84894675926</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40830,10 +39740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:27</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44420.84892361111</v>
       </c>
       <c r="I555" t="n">
         <v>3</v>
@@ -40905,10 +39813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:22</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44420.84886574074</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40980,10 +39886,8 @@
           <t>5140411480</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:18</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44420.84881944444</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41055,10 +39959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:13</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44420.84876157407</v>
       </c>
       <c r="I558" t="n">
         <v>3</v>
@@ -41122,10 +40024,8 @@
           <t>5140385952</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:13</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44420.84876157407</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41193,10 +40093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:11</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44420.84873842593</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41264,10 +40162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:10</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44420.84872685185</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41331,10 +40227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:09</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44420.84871527777</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41406,10 +40300,8 @@
           <t>5140408516</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:01</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44420.84862268518</v>
       </c>
       <c r="I563" t="n">
         <v>5</v>
@@ -41477,10 +40369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:49</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44420.8484837963</v>
       </c>
       <c r="I564" t="n">
         <v>4</v>
@@ -41544,10 +40434,8 @@
           <t>5140403106</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:37</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44420.8483449074</v>
       </c>
       <c r="I565" t="n">
         <v>7</v>
@@ -41611,10 +40499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:32</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44420.84828703704</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41690,10 +40576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:31</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44420.84827546297</v>
       </c>
       <c r="I567" t="n">
         <v>69</v>
@@ -41761,10 +40645,8 @@
           <t>5140402476</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:26</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44420.84821759259</v>
       </c>
       <c r="I568" t="n">
         <v>51</v>
@@ -41841,10 +40723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:23</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44420.84818287037</v>
       </c>
       <c r="I569" t="n">
         <v>4</v>
@@ -41904,10 +40784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:23</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44420.84818287037</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -41979,10 +40857,8 @@
           <t>5140398252</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:18</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44420.848125</v>
       </c>
       <c r="I571" t="n">
         <v>6</v>
@@ -42058,10 +40934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:11</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44420.84804398148</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42125,10 +40999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:21:09</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44420.84802083333</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42196,10 +41068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:58</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44420.84789351852</v>
       </c>
       <c r="I574" t="n">
         <v>921</v>
@@ -42267,10 +41137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:43</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44420.8477199074</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42338,10 +41206,8 @@
           <t>5140394535</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:27</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44420.84753472222</v>
       </c>
       <c r="I576" t="n">
         <v>26</v>
@@ -42405,10 +41271,8 @@
           <t>5140395256</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:22</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44420.84747685185</v>
       </c>
       <c r="I577" t="n">
         <v>10</v>
@@ -42472,10 +41336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:15</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44420.84739583333</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42551,10 +41413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:14</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44420.84738425926</v>
       </c>
       <c r="I579" t="n">
         <v>75</v>
@@ -42626,10 +41486,8 @@
           <t>5140393227</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:20:01</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44420.8472337963</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42701,10 +41559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:53</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44420.8471412037</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42776,10 +41632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:49</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44420.84709490741</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42843,10 +41697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:47</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44420.84707175926</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42918,10 +41770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:46</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44420.84706018519</v>
       </c>
       <c r="I584" t="n">
         <v>2</v>
@@ -42985,10 +41835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:44</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44420.84703703703</v>
       </c>
       <c r="I585" t="n">
         <v>4</v>
@@ -43060,10 +41908,8 @@
           <t>5140382604</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:32</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44420.84689814815</v>
       </c>
       <c r="I586" t="n">
         <v>10</v>
@@ -43135,10 +41981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:31</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44420.84688657407</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43215,10 +42059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:27</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44420.84684027778</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43294,10 +42136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:26</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44420.8468287037</v>
       </c>
       <c r="I589" t="n">
         <v>54</v>
@@ -43361,10 +42201,8 @@
           <t>5140391432</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:26</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44420.8468287037</v>
       </c>
       <c r="I590" t="n">
         <v>14</v>
@@ -43440,10 +42278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:20</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44420.84675925926</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43519,10 +42355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:16</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44420.84671296296</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43598,10 +42432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:15</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44420.84670138889</v>
       </c>
       <c r="I593" t="n">
         <v>3</v>
@@ -43673,10 +42505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:11</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44420.8466550926</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43752,10 +42582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:10</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44420.84664351852</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43819,10 +42647,8 @@
           <t>5140385952</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:08</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44420.84662037037</v>
       </c>
       <c r="I596" t="n">
         <v>43</v>
@@ -43894,10 +42720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:07</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44420.8466087963</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -43957,10 +42781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:19:03</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44420.8465625</v>
       </c>
       <c r="I598" t="n">
         <v>5</v>
@@ -44024,10 +42846,8 @@
           <t>5140379923</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:58</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44420.84650462963</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44091,10 +42911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:57</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44420.84649305556</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44170,10 +42988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:57</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44420.84649305556</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44237,10 +43053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:55</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44420.84646990741</v>
       </c>
       <c r="I602" t="n">
         <v>216</v>
@@ -44316,10 +43130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:38</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44420.84627314815</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44383,10 +43195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:33</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44420.84621527778</v>
       </c>
       <c r="I604" t="n">
         <v>356</v>
@@ -44450,10 +43260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:31</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44420.84619212963</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44525,10 +43333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:29</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44420.84616898148</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44588,10 +43394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:25</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44420.84612268519</v>
       </c>
       <c r="I607" t="n">
         <v>424</v>
@@ -44667,10 +43471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:24</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44420.84611111111</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44746,10 +43548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:19</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44420.84605324074</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44825,10 +43625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:18</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44420.84604166666</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -44896,10 +43694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:18</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44420.84604166666</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44975,10 +43771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:09</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44420.8459375</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45042,10 +43836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:18:07</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44420.84591435185</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45117,10 +43909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:55</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44420.84577546296</v>
       </c>
       <c r="I614" t="n">
         <v>547</v>
@@ -45192,10 +43982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:54</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44420.84576388889</v>
       </c>
       <c r="I615" t="n">
         <v>271</v>
@@ -45263,10 +44051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:52</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44420.84574074074</v>
       </c>
       <c r="I616" t="n">
         <v>2</v>
@@ -45330,10 +44116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:52</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44420.84574074074</v>
       </c>
       <c r="I617" t="n">
         <v>100</v>
@@ -45405,10 +44189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:52</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44420.84574074074</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45480,10 +44262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:50</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44420.84571759259</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45562,10 +44342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:44</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44420.84564814815</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
